--- a/public/reportTemplates/month1carbone.xlsx
+++ b/public/reportTemplates/month1carbone.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0985EE2-2978-8249-B11F-F7EBE59E2A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="11440" yWindow="29560" windowWidth="24040" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -13,29 +17,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">{queryYear}年{queryMonth}月公司新增放款{total}万元（基建占比{infrastructurePercentage}%，医药占比{medicinePercentage}%，再保理占比{factoringPercentage}%），
-受让对应的应收账款{accountsReceivable}万元，平均保理利率{factoringRate}%，新增合作客户{customerTotal}家，受理业务{businessCount}笔，已发生实际业务合作的核心企业新增【】家；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">截止【】年【】月【】日，公司应收账款余额【】万元，放款余额【】万元，业务不良率为【】%，
+    <t>截止【】年【】月【】日，公司应收账款余额【】万元，放款余额【】万元，业务不良率为【】%，
 累计受让应收账款金额【】万元，累计放款【】万元（基建占比【】%，医药占比【】%,再保理占比【】%）,累计还款【】万元；</t>
   </si>
   <si>
-    <t xml:space="preserve">展业至今，公司合作客户【】家，累计受理业务【】笔，已发生实际业务合作的核心企业【】家，
+    <t>展业至今，公司合作客户【】家，累计受理业务【】笔，已发生实际业务合作的核心企业【】家，
 累计受让应收账款【】亿元，累计放款【】亿元（基建占比【】%，医药占比【】%,再保理占比【】%）；放款余额【】亿元；业务不良率为【】%。</t>
+  </si>
+  <si>
+    <t>{d.queryYear}年{d.queryMonth}月公司新增放款{d.total}万元（基建占比{d.infrastructurePercentage}%，医药占比{d.medicinePercentage}%，再保理占比{d.factoringPercentage}%），
+受让对应的应收账款{d.accountsReceivable}万元，平均保理利率【】%，新增合作客户{d.customerTotal}家，受理业务{d.businessCount}笔，已发生实际业务合作的核心企业新增【】家；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +77,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,30 +413,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="122.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="159" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="212" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="152" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" ht="152" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="114" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/public/reportTemplates/month1carbone.xlsx
+++ b/public/reportTemplates/month1carbone.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0985EE2-2978-8249-B11F-F7EBE59E2A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731981AA-EC29-5A40-B328-642A4471E2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="29560" windowWidth="24040" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>截止【】年【】月【】日，公司应收账款余额【】万元，放款余额【】万元，业务不良率为【】%，
-累计受让应收账款金额【】万元，累计放款【】万元（基建占比【】%，医药占比【】%,再保理占比【】%）,累计还款【】万元；</t>
+    <t>{d.monthlySummary.statYear}年{d.monthlySummary.statMonth}月公司新增放款【{d.monthlySummary.newLoanAmount}】万元（基建占比【{d.monthlySummary.newInfraRatio}】%，医药占比【{d.monthlySummary.newMedicalRatio}】%，再保理占比【{d.monthlySummary.newRefactoringRatio}】%），
+受让对应的应收账款【{d.monthlySummary.newArAssignedAmount}】万元，平均保理利率【】%，新增合作客户【{d.monthlySummary.newCoopCustomerCount}】家，受理业务【{d.monthlySummary.newAcceptedBusinessCount}】笔，已发生实际业务合作的核心企业新增【】家；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>展业至今，公司合作客户【】家，累计受理业务【】笔，已发生实际业务合作的核心企业【】家，
-累计受让应收账款【】亿元，累计放款【】亿元（基建占比【】%，医药占比【】%,再保理占比【】%）；放款余额【】亿元；业务不良率为【】%。</t>
+    <t>截止{d.asOfDateSummary.queryYear}年{d.asOfDateSummary.queryMonth}月{d.asOfDateSummary.queryDay}日，公司应收账款余额【】万元，放款余额【】万元，业务不良率为【】%,
+累计受让应收账款金额【】万元，累计放款【{d.asOfDateSummary.cumLoanAmount}】万元（基建占比【{d.asOfDateSummary.infraRatio}】% ,医药占比【{d.asOfDateSummary.medicalRatio}】%,再保理占比【{d.asOfDateSummary.refactoringRatio}】%）,累计还款【】万元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{d.queryYear}年{d.queryMonth}月公司新增放款{d.total}万元（基建占比{d.infrastructurePercentage}%，医药占比{d.medicinePercentage}%，再保理占比{d.factoringPercentage}%），
-受让对应的应收账款{d.accountsReceivable}万元，平均保理利率【】%，新增合作客户{d.customerTotal}家，受理业务{d.businessCount}笔，已发生实际业务合作的核心企业新增【】家；</t>
+    <t>展业至今，公司合作客户【】家，累计受理业务【{d.sinceInceptionSummary.cumAcceptedBusinessCount}】笔，已发生实际业务合作的核心企业【】家，
+累计受让应收账款【{d.sinceInceptionSummary.cumArAssignedAmount}】亿元，累计放款【{d.sinceInceptionSummary.cumLoanAmount}】亿元（基建占比【{d.sinceInceptionSummary.infraRatio}】%，医药占比【{d.sinceInceptionSummary.medicalRatio}】%，再保理占比【{d.sinceInceptionSummary.refactoringRatio}】%）；放款余额【】亿元；业务不良率为【】%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,17 +427,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="212" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="152" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="152" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
